--- a/cmake-build-release/excel.xlsx
+++ b/cmake-build-release/excel.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Якоби" sheetId="1" r:id="rId1"/>
+    <sheet name="Зейдель" sheetId="2" r:id="rId2"/>
+    <sheet name="Релакс" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
   <si>
     <t>Residual</t>
   </si>
@@ -28,6 +30,9 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>Answer:</t>
   </si>
 </sst>
 </file>
@@ -133,7 +138,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$AI$2</c:f>
+              <c:f>Якоби!$B$2:$AI$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -244,7 +249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$1:$AI$1</c:f>
+              <c:f>Якоби!$B$1:$AI$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -569,7 +574,851 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Зейдель!$B$2:$Q$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Зейдель!$B$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>883.42081141998403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.347324567993901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3946954412577304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39903540924613901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4324166271000904E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7491436437119101E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7031742925055197E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5945516225381698E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.16659876421228E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5278296675145002E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7923997769337701E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5338283100542301E-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5591164285659002E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6085003908559099E-11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4531305726236401E-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BD2-4462-B470-26F4B1F37744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1728175728"/>
+        <c:axId val="1728180304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1728175728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728180304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1728180304"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728175728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Релакс!$B$2:$AB$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Релакс!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>5050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1921.7795207725901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>703.58541404195705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223.03007620225301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.937021202011501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.623753389057001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8628002449957899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3676174766197899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38982876450998499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11128008042752099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1603989674131597E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9301818213771596E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.51826942963342E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.1058452667098297E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0079452606230701E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6791405851596802E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.60640883117024E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5423392930590397E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.28392835344959E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6284282965877398E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.02537726133619E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8977206949264399E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1889358360151303E-9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.31406336800854E-9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5386523940506103E-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.84743483748819E-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.21936853545984E-11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A936-47D3-A3BD-D2F191AE8FCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1980558896"/>
+        <c:axId val="1980569712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1980558896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1980569712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1980569712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1980558896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1125,6 +1974,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1139,6 +3020,76 @@
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1425,7 +3376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1957,4 +3908,1324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5050</v>
+      </c>
+      <c r="C1">
+        <v>883.42081141998403</v>
+      </c>
+      <c r="D1">
+        <v>43.347324567993901</v>
+      </c>
+      <c r="E1">
+        <v>7.3946954412577304</v>
+      </c>
+      <c r="F1">
+        <v>0.39903540924613901</v>
+      </c>
+      <c r="G1">
+        <v>6.4324166271000904E-2</v>
+      </c>
+      <c r="H1">
+        <v>3.7491436437119101E-3</v>
+      </c>
+      <c r="I1">
+        <v>5.7031742925055197E-4</v>
+      </c>
+      <c r="J1">
+        <v>3.5945516225381698E-5</v>
+      </c>
+      <c r="K1">
+        <v>5.16659876421228E-6</v>
+      </c>
+      <c r="L1">
+        <v>3.5278296675145002E-7</v>
+      </c>
+      <c r="M1">
+        <v>4.7923997769337701E-8</v>
+      </c>
+      <c r="N1">
+        <v>3.5338283100542301E-9</v>
+      </c>
+      <c r="O1">
+        <v>4.5591164285659002E-10</v>
+      </c>
+      <c r="P1">
+        <v>3.6085003908559099E-11</v>
+      </c>
+      <c r="Q1">
+        <v>4.4531305726236401E-12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-345.74502770756197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>44.019178182172702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.5532458858349099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8.4483629594781693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7.96312451938332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7.9203918466885499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.8329570137311597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7.7500380159997997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7.6666628262708096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7.5833337212920897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7.4999999608082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7.4166666706258404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.3333333329333703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7.2500000000403997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7.1666666666625796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7.0833333333337398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6.9999999999999503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6.9166666666666696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6.8333333333333304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6.6666666666666599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6.5833333333333304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6.4166666666666599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6.3333333333333304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6.1666666666666599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6.0833333333333304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5.9166666666666599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5.8333333333333304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5.6666666666666599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5.5833333333333304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5.4166666666666599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5.3333333333333304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5.1666666666666599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5.0833333333333304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4.9166666666666599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4.8333333333333304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4.6666666666666599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4.5833333333333304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4.4166666666666599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4.3333333333333304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4.1666666666666599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4.0833333333333304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3.9166666666666599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3.8333333333333299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3.6666666666666599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3.5833333333333299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3.4166666666666599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3.3333333333333299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3.1666666666666599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3.0833333333333299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2.9166666666666599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2.8333333333333299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2.6666666666666599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2.5833333333333299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2.4166666666666599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2.3333333333333299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2.1666666666666599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2.0833333333333299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1.9166666666666601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1.8333333333333299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1.5833333333333299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1.4166666666666601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1.3333333333333299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1.1666666666665699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1.0833333333342701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.99999999999067501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.91666666675900599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.83333333241922802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.75000000904873498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.66666657709338295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.58333422001746105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.499991222731967</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.41675355266289399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.33247325063905198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.25851394094660901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>8.2387339894824704E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.91761266010517495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5050</v>
+      </c>
+      <c r="C1">
+        <v>1921.7795207725901</v>
+      </c>
+      <c r="D1">
+        <v>703.58541404195705</v>
+      </c>
+      <c r="E1">
+        <v>223.03007620225301</v>
+      </c>
+      <c r="F1">
+        <v>63.937021202011501</v>
+      </c>
+      <c r="G1">
+        <v>17.623753389057001</v>
+      </c>
+      <c r="H1">
+        <v>4.8628002449957899</v>
+      </c>
+      <c r="I1">
+        <v>1.3676174766197899</v>
+      </c>
+      <c r="J1">
+        <v>0.38982876450998499</v>
+      </c>
+      <c r="K1">
+        <v>0.11128008042752099</v>
+      </c>
+      <c r="L1">
+        <v>3.1603989674131597E-2</v>
+      </c>
+      <c r="M1">
+        <v>8.9301818213771596E-3</v>
+      </c>
+      <c r="N1">
+        <v>2.51826942963342E-3</v>
+      </c>
+      <c r="O1">
+        <v>7.1058452667098297E-4</v>
+      </c>
+      <c r="P1">
+        <v>2.0079452606230701E-4</v>
+      </c>
+      <c r="Q1">
+        <v>5.6791405851596802E-5</v>
+      </c>
+      <c r="R1">
+        <v>1.60640883117024E-5</v>
+      </c>
+      <c r="S1">
+        <v>4.5423392930590397E-6</v>
+      </c>
+      <c r="T1">
+        <v>1.28392835344959E-6</v>
+      </c>
+      <c r="U1">
+        <v>3.6284282965877398E-7</v>
+      </c>
+      <c r="V1">
+        <v>1.02537726133619E-7</v>
+      </c>
+      <c r="W1">
+        <v>2.8977206949264399E-8</v>
+      </c>
+      <c r="X1">
+        <v>8.1889358360151303E-9</v>
+      </c>
+      <c r="Y1">
+        <v>2.31406336800854E-9</v>
+      </c>
+      <c r="Z1">
+        <v>6.5386523940506103E-10</v>
+      </c>
+      <c r="AA1">
+        <v>1.84743483748819E-10</v>
+      </c>
+      <c r="AB1">
+        <v>5.21936853545984E-11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>19</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>21</v>
+      </c>
+      <c r="X2">
+        <v>22</v>
+      </c>
+      <c r="Y2">
+        <v>23</v>
+      </c>
+      <c r="Z2">
+        <v>24</v>
+      </c>
+      <c r="AA2">
+        <v>25</v>
+      </c>
+      <c r="AB2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-345.745027707573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>44.019178182175203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4.55324588583417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8.4483629594783096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7.9631245193832196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7.9203918466885099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.83295701373111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7.75003801599975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7.6666628262707599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7.5833337212920497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7.4999999608081502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>7.4166666706257898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7.3333333329333303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7.2500000000403499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7.1666666666625396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7.0833333333336999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6.9999999999999103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6.9166666666666199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6.8333333333332904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6.7499999999999503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6.6666666666666199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6.5833333333332904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6.49999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6.4166666666666199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6.3333333333332904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6.24999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6.1666666666666297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6.0833333333332904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5.99999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5.9166666666666297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5.8333333333332904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>5.74999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5.6666666666666297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5.5833333333333002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5.49999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5.4166666666666297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5.3333333333333002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5.24999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5.1666666666666297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5.0833333333333002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4.9999999999999698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4.9166666666666297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4.8333333333333002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4.7499999999999698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4.6666666666666403</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4.5833333333333002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4.4999999999999698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4.4166666666666403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4.3333333333333002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4.2499999999999698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4.1666666666666403</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4.0833333333333099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3.9999999999999698</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3.9166666666666399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3.8333333333333099</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3.74999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3.6666666666666399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3.5833333333333099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3.49999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3.4166666666666399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3.3333333333333099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3.24999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3.1666666666666501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3.0833333333333099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2.99999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2.9166666666666501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2.8333333333333202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.74999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2.6666666666666501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2.5833333333333202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2.49999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2.4166666666666501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2.3333333333333202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2.2499999999999898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2.1666666666666501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2.0833333333333202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1.99999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1.9166666666666601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1.8333333333333199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1.74999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1.5833333333333199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1.49999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1.4166666666666601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1.3333333333333299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1.1666666666665699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1.0833333333342701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.99999999999067102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.91666666675900998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.83333333241922503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.75000000904873898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.66666657709337895</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.58333422001746504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.499991222731963</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.41675355266289799</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.33247325063904798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.25851394094661301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>8.2387339894820694E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.91761266010517895</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>